--- a/final_predections/wrc_preds.xlsx
+++ b/final_predections/wrc_preds.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ecb3f455979cfb1d/Pictures/Documents/Projects/MLB Season Model/final_predections/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ecb3f455979cfb1d/Pictures/Documents/Projects/Active/MLB Season Model/final_predections/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_7B6DB2605743600F62355476585DCE3A8742A571" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6847A588-0623-4519-A5C3-CE58372C4093}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_7B6DB2605743600F62355476585DCE3A8742A571" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94FC15F8-8833-4C7B-9A2A-0E6B464584B6}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1985,6 +1985,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2274,8 +2278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M618"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="B155" sqref="B155"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
